--- a/Arbeitsmappe1.xlsx
+++ b/Arbeitsmappe1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-1180" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Attribute</t>
   </si>
@@ -214,6 +214,42 @@
   </si>
   <si>
     <t>search for 3-4</t>
+  </si>
+  <si>
+    <t>slider</t>
+  </si>
+  <si>
+    <t>4 autos</t>
+  </si>
+  <si>
+    <t>super helden</t>
+  </si>
+  <si>
+    <t>- kind</t>
+  </si>
+  <si>
+    <t>- erwachsen</t>
+  </si>
+  <si>
+    <t>- bodybuilder</t>
+  </si>
+  <si>
+    <t>- superman</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>tastatur setzen</t>
+  </si>
+  <si>
+    <t>segmented</t>
+  </si>
+  <si>
+    <t>controls</t>
   </si>
 </sst>
 </file>
@@ -292,8 +328,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -331,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
@@ -345,6 +383,7 @@
     <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
@@ -358,6 +397,7 @@
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,19 +727,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:R48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="16.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="15" max="15" width="2.83203125" customWidth="1"/>
+    <col min="17" max="17" width="2.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -734,12 +776,18 @@
       </c>
     </row>
     <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -769,12 +817,18 @@
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>75</v>
+      </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>9</v>
@@ -829,6 +883,9 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
       <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
@@ -840,6 +897,9 @@
       </c>
     </row>
     <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
         <v>46</v>
@@ -857,13 +917,19 @@
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>65</v>
+      </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>66</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6">
         <v>1</v>
@@ -872,7 +938,10 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6">
         <v>2</v>
@@ -881,7 +950,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="1:18">
+      <c r="A20" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6">
         <v>3</v>
@@ -890,7 +962,10 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="1:18">
+      <c r="A21" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6">
         <v>4</v>
@@ -899,15 +974,21 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="1:18">
+      <c r="A22" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="1:18">
+      <c r="A23" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="1:18">
       <c r="B24" s="5" t="s">
         <v>11</v>
       </c>
@@ -921,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="1:18">
       <c r="B25" s="5"/>
       <c r="C25" s="6">
         <v>2</v>
@@ -933,7 +1014,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="1:18">
       <c r="B26" s="5"/>
       <c r="C26" s="6">
         <v>3</v>
@@ -944,8 +1025,26 @@
       <c r="I26" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="M26" t="s">
+        <v>72</v>
+      </c>
+      <c r="N26" t="s">
+        <v>72</v>
+      </c>
+      <c r="O26" t="s">
+        <v>72</v>
+      </c>
+      <c r="P26" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>72</v>
+      </c>
+      <c r="R26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
       <c r="B27" s="5"/>
       <c r="C27" s="6">
         <v>4</v>
@@ -956,8 +1055,20 @@
       <c r="I27" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="28" spans="2:10">
+      <c r="N27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>72</v>
+      </c>
+      <c r="R27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
       <c r="B28" s="5"/>
       <c r="C28" s="6">
         <v>5</v>
@@ -972,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="1:18">
       <c r="B29" s="5"/>
       <c r="C29" s="6">
         <v>6</v>
@@ -984,7 +1095,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="1:18">
       <c r="B30" s="5"/>
       <c r="C30" s="6">
         <v>7</v>
@@ -996,17 +1107,17 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="1:18">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="1:18">
       <c r="B32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="1:9">
       <c r="B33" s="5"/>
       <c r="C33" s="6">
         <v>1</v>
@@ -1015,7 +1126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="2:9">
+    <row r="34" spans="1:9">
       <c r="B34" s="5"/>
       <c r="C34" s="6">
         <v>2</v>
@@ -1024,7 +1135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:9">
+    <row r="35" spans="1:9">
       <c r="B35" s="5"/>
       <c r="C35" s="6">
         <v>3</v>
@@ -1033,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="1:9">
       <c r="B36" s="5"/>
       <c r="C36" s="6">
         <v>4</v>
@@ -1042,7 +1153,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="2:9">
+    <row r="37" spans="1:9">
       <c r="B37" s="5"/>
       <c r="C37" s="6">
         <v>5</v>
@@ -1051,11 +1162,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="2:9">
+    <row r="38" spans="1:9">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>32</v>
       </c>
@@ -1066,7 +1180,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" s="3" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1199,7 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="2:9">
+    <row r="43" spans="1:9">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -1092,7 +1211,7 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="2:9">
+    <row r="44" spans="1:9">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
@@ -1106,7 +1225,7 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="2:9">
+    <row r="45" spans="1:9">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
@@ -1120,7 +1239,7 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="1:9">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
@@ -1134,7 +1253,7 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9">
+    <row r="47" spans="1:9">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
@@ -1148,7 +1267,7 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9">
+    <row r="48" spans="1:9">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>

--- a/Arbeitsmappe1.xlsx
+++ b/Arbeitsmappe1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26004"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28280" windowHeight="16360" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="73">
   <si>
     <t>Attribute</t>
   </si>
@@ -132,21 +132,9 @@
     <t>+1 range</t>
   </si>
   <si>
-    <t>-1 range</t>
-  </si>
-  <si>
-    <t>price = 1,2</t>
-  </si>
-  <si>
     <t>no impact on score only in display TCO</t>
   </si>
   <si>
-    <t>- 1 range</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
     <t>4-5</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>3-4</t>
   </si>
   <si>
-    <t>1-3</t>
-  </si>
-  <si>
     <t>SUV</t>
   </si>
   <si>
@@ -250,6 +235,9 @@
   </si>
   <si>
     <t>controls</t>
+  </si>
+  <si>
+    <t>price=1</t>
   </si>
 </sst>
 </file>
@@ -328,8 +316,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -369,36 +359,38 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="29">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="31">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -733,7 +725,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A16"/>
+      <selection pane="bottomRight" activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -746,7 +738,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>12</v>
@@ -777,7 +769,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>1</v>
@@ -786,7 +778,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -796,9 +788,7 @@
         <v>35</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="5"/>
@@ -808,9 +798,7 @@
       <c r="F5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="5"/>
@@ -818,7 +806,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
@@ -827,18 +815,14 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="F8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10">
@@ -846,12 +830,8 @@
       <c r="C9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="J9" s="1" t="s">
         <v>36</v>
       </c>
@@ -861,21 +841,18 @@
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:10">
       <c r="B11" s="5"/>
       <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="5"/>
@@ -884,25 +861,25 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1"/>
     </row>
@@ -919,7 +896,7 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>10</v>
@@ -928,7 +905,7 @@
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6">
@@ -940,7 +917,7 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6">
@@ -952,7 +929,7 @@
     </row>
     <row r="20" spans="1:18">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6">
@@ -964,7 +941,7 @@
     </row>
     <row r="21" spans="1:18">
       <c r="A21" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6">
@@ -976,14 +953,14 @@
     </row>
     <row r="22" spans="1:18">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
@@ -1023,25 +1000,25 @@
         <v>16</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R26" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -1050,22 +1027,22 @@
         <v>4</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="O27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R27" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -1080,7 +1057,7 @@
         <v>24</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -1104,7 +1081,7 @@
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -1168,7 +1145,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>32</v>
@@ -1177,22 +1154,22 @@
         <v>33</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="B42" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -1205,7 +1182,7 @@
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
@@ -1215,11 +1192,11 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="4" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -1229,11 +1206,11 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
@@ -1243,11 +1220,11 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
@@ -1257,11 +1234,11 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
@@ -1273,13 +1250,13 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="I48" s="3"/>
     </row>
